--- a/training/BestModel.xlsx
+++ b/training/BestModel.xlsx
@@ -50,7 +50,7 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>90% threshold</t>
+    <t>90% threshold - this isn't the accuracy rate, as much as it the returned rate</t>
   </si>
 </sst>
 </file>
@@ -114,14 +114,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,10 +417,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -433,29 +433,29 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <f>1-C4</f>
         <v>0.91300000000000003</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <f>1-D3</f>
         <v>0.95020000000000004</v>
       </c>
@@ -471,10 +471,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -487,31 +487,33 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <f>1-C9</f>
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5.0599999999999999E-2</v>
+        <v>0.78834951456310676</v>
+      </c>
+      <c r="D8" s="3">
+        <f>25/513</f>
+        <v>4.8732943469785572E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.221</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="2">
+        <f>(109/515)</f>
+        <v>0.21165048543689322</v>
+      </c>
+      <c r="D9" s="3">
         <f>1-D8</f>
-        <v>0.94940000000000002</v>
+        <v>0.95126705653021437</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -569,33 +571,33 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <f>1-C18</f>
-        <v>0.9147286821705426</v>
-      </c>
-      <c r="D17" s="5">
-        <f>129/513</f>
-        <v>0.25146198830409355</v>
+        <v>0.9066147859922179</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(25+75)/513</f>
+        <v>0.19493177387914229</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
-        <f>44/516</f>
-        <v>8.5271317829457363E-2</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="2">
+        <f>48/514</f>
+        <v>9.3385214007782102E-2</v>
+      </c>
+      <c r="D18" s="3">
         <f>1-D17</f>
-        <v>0.74853801169590639</v>
+        <v>0.80506822612085771</v>
       </c>
     </row>
   </sheetData>

--- a/training/BestModel.xlsx
+++ b/training/BestModel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Positive</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>90% threshold - this isn't the accuracy rate, as much as it the returned rate</t>
+  </si>
+  <si>
+    <t>Precision</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -122,6 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -401,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -412,7 +416,7 @@
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -421,8 +425,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -431,8 +439,15 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -446,8 +461,16 @@
       <c r="D3" s="3">
         <v>4.9799999999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="6">
+        <f>C3/(D3+C3)</f>
+        <v>0.94827586206896552</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -459,14 +482,22 @@
         <f>1-D3</f>
         <v>0.95020000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,8 +506,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -485,8 +520,12 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -501,8 +540,16 @@
         <f>25/513</f>
         <v>4.8732943469785572E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="6">
+        <f>C8/(D8+C8)</f>
+        <v>0.9417823859499983</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -515,42 +562,66 @@
         <f>1-D8</f>
         <v>0.95126705653021437</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,8 +630,12 @@
         <v>2</v>
       </c>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -569,8 +644,12 @@
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -585,8 +664,16 @@
         <f>(25+75)/513</f>
         <v>0.19493177387914229</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="6">
+        <f>C17/(D17+C17)</f>
+        <v>0.82303809845141118</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -599,9 +686,19 @@
         <f>1-D17</f>
         <v>0.80506822612085771</v>
       </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A8:A9"/>
